--- a/workflow-test/data for Concrete Properties Ontology.xlsx
+++ b/workflow-test/data for Concrete Properties Ontology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>hasMaterialProperty</t>
   </si>
@@ -52,13 +52,25 @@
     <t>Units</t>
   </si>
   <si>
+    <t>WaterQuantity</t>
+  </si>
+  <si>
+    <t>kilogramPerCubicmetre</t>
+  </si>
+  <si>
+    <t>CoarseAggregateQuantity</t>
+  </si>
+  <si>
+    <t>FineAggregateQuantity</t>
+  </si>
+  <si>
+    <t>BinderQuantity</t>
+  </si>
+  <si>
     <t>TapWater</t>
   </si>
   <si>
-    <t>kilogramPerCubicmetre</t>
-  </si>
-  <si>
-    <t>LimeStone</t>
+    <t>Limestone</t>
   </si>
   <si>
     <t>Basalt</t>
@@ -68,12 +80,6 @@
   </si>
   <si>
     <t>CementCEM-I</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Limestone</t>
   </si>
   <si>
     <t>class</t>
@@ -140,12 +146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,6 +154,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -199,22 +205,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -223,14 +223,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -545,52 +548,52 @@
   <cols>
     <col min="1" max="1" style="3" width="27.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -598,37 +601,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -638,34 +641,34 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>3000</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>3000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>3000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>3000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>3000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>2700</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>2900</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>2700</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>2500</v>
       </c>
     </row>
@@ -674,36 +677,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
         <v>4180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>560</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>560</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>560</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>560</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>560</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>720</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>770</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>740</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>910</v>
       </c>
     </row>
@@ -712,36 +715,36 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="14">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13">
         <v>0.6</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>1.3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1.3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>1.3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1.3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1.3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>4.6</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>1.9</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>2.9</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>3</v>
       </c>
     </row>
@@ -750,22 +753,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="7">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4">
         <v>8</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>7</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>6</v>
       </c>
     </row>
@@ -799,34 +802,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -839,20 +842,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="18.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -871,25 +874,25 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>150</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>145</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
@@ -898,40 +901,44 @@
       <c r="B3" s="4">
         <v>700</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="4">
+        <v>640</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>640</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1290</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1290</v>
+      <c r="B5" s="4">
+        <v>350</v>
+      </c>
+      <c r="C5" s="4">
+        <v>360</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
@@ -939,41 +946,21 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7">
-        <v>350</v>
-      </c>
-      <c r="C6" s="7">
-        <v>360</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="4">
+        <f>sum(B2:B5)</f>
+      </c>
+      <c r="C6" s="4">
+        <f>sum(C2:C5)</f>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7">
-        <f>SUM(B2:B6)</f>
-      </c>
-      <c r="C7" s="7">
-        <f>SUM(C2:C6)</f>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
